--- a/notebooks_rotten_tomatoes_static_lex/test_cases/random.xlsx
+++ b/notebooks_rotten_tomatoes_static_lex/test_cases/random.xlsx
@@ -903,7 +903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,7 +936,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jolie gives it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than phenomenal .</t>
+          <t>jolie gets it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than successful .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -954,7 +954,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jolie gives it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than notch .</t>
+          <t>jolie evoked it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than moving .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -972,7 +972,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jolie awakens it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than breathtaking .</t>
+          <t>jolie enjoy it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than moving .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -990,7 +990,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jolie knows it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than notch .</t>
+          <t>jolie celebrating it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than bigger .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1008,7 +1008,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jolie discover it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than challenging .</t>
+          <t>jolie enjoy it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than delicate .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1026,7 +1026,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jolie gets it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than moving .</t>
+          <t>jolie celebrating it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than notch .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1044,7 +1044,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jolie awakens it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than challenging .</t>
+          <t>jolie coming it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than successful .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1062,7 +1062,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jolie knows it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than interpersonal .</t>
+          <t>jolie celebrating it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than funny .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1080,7 +1080,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jolie discover it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than bigger .</t>
+          <t>jolie awakens it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than brilliant .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1098,7 +1098,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jolie gets it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than passionate .</t>
+          <t>jolie gives it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than wonderful .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1116,7 +1116,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jolie knows it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than breathtaking .</t>
+          <t>jolie gets it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than funny .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1134,7 +1134,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jolie gets it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than phenomenal .</t>
+          <t>jolie coming it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than powerful .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1152,7 +1152,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jolie awakens it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than funny .</t>
+          <t>jolie loved it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than engrossing .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1170,7 +1170,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jolie gives it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than challenging .</t>
+          <t>jolie discover it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than successful .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1188,7 +1188,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jolie gets it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than bigger .</t>
+          <t>jolie gets it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than wonderful .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1206,7 +1206,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>jolie discover it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than passionate .</t>
+          <t>jolie shares it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than challenging .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1224,7 +1224,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>jolie gives it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than interpersonal .</t>
+          <t>jolie shares it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than passionate .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1242,7 +1242,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>jolie gives it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than breathtaking .</t>
+          <t>jolie coming it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than interpersonal .</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1260,7 +1260,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>jolie knows it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than phenomenal .</t>
+          <t>jolie gets it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than timeless .</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1278,7 +1278,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>jolie gives it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than moving .</t>
+          <t>jolie discover it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than passionate .</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1296,7 +1296,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>jolie knows it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than challenging .</t>
+          <t>jolie loved it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than passionate .</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1314,7 +1314,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>jolie discover it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than delicate .</t>
+          <t>jolie awakens it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than bigger .</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1326,6 +1326,222 @@
         </is>
       </c>
       <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>jolie gets it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than notch .</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>jolie discover it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than moving .</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>jolie gives it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than interpersonal .</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>jolie enjoy it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than phenomenal .</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>jolie shares it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than timeless .</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>jolie loved it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than successful .</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>jolie loved it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than moving .</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>jolie knows it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than worth .</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>jolie celebrating it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than terrific .</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>jolie evoked it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than funny .</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>jolie gives it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than challenging .</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>jolie carries it that extra little something that makes it worth checking out at theaters , especially if you 're in the mood for something more comfortable than notch .</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1340,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,7 +1589,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is dismissed phenomenal , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is avoids worth , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1391,7 +1607,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is undermines breathtaking , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is undermines worth , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1409,7 +1625,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is undermines funny , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is undermines notch , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1427,7 +1643,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is dismissed bigger , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is squanders timeless , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1445,7 +1661,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is removed notch , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is squanders successful , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1463,7 +1679,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is tells interpersonal , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is withered tender , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1481,7 +1697,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is withered moving , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is simpering phenomenal , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1499,7 +1715,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is tells notch , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is squanders worth , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1517,7 +1733,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is dismissed interpersonal , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is dismissed worth , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1535,7 +1751,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is given notch , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is modeled notch , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1553,7 +1769,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is dismissed moving , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is dismissed tender , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1571,7 +1787,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is undermines notch , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is avoids moving , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1589,7 +1805,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is withered phenomenal , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is withered bigger , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1607,7 +1823,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is undermines bigger , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is simpering notch , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1625,7 +1841,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is undermines interpersonal , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is removed notch , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1643,7 +1859,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is have bigger , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is have moving , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1661,7 +1877,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is undermines delicate , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is removed bigger , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1679,7 +1895,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is have interpersonal , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is avoids interpersonal , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1697,7 +1913,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is have notch , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is dismissed bigger , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1715,7 +1931,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is removed phenomenal , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is avoids challenging , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1733,7 +1949,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is dismissed notch , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is simpering bigger , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1751,7 +1967,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is removed interpersonal , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is squanders tender , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1769,7 +1985,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is undermines moving , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is tells interpersonal , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1787,7 +2003,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is removed bigger , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is removed terrific , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1805,7 +2021,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is dismissed delicate , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is squanders terrific , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1823,7 +2039,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is tells funny , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is undermines tender , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1831,17 +2047,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is tells breathtaking , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is dismissed passionate , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1849,17 +2065,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is given phenomenal , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is squanders funny , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1867,17 +2083,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is withered funny , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is squanders engrossing , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1885,17 +2101,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is modeled interpersonal , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is dismissed notch , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1903,17 +2119,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is modeled challenging , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is withered successful , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1921,17 +2137,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is given bigger , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is dismissed moving , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1939,17 +2155,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is modeled moving , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is simpering tender , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1957,17 +2173,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is modeled phenomenal , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is removed worth , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1975,17 +2191,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is withered breathtaking , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is avoids successful , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1993,17 +2209,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is dismissed challenging , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is removed moving , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2011,17 +2227,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is given moving , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is have bigger , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2029,17 +2245,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is dismissed funny , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is undermines terrific , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2047,17 +2263,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>a dreadful day in irish history is given delicate , if somewhat flawed , treatment .</t>
+          <t>a dreadful day in irish history is squanders breathtaking , if somewhat flawed , treatment .</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2065,10 +2281,406 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is squanders powerful , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is avoids delicate , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is dismissed timeless , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is undermines moving , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is avoids timeless , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is have phenomenal , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is dismissed powerful , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is given bigger , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is given moving , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is avoids powerful , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is tells moving , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is withered breathtaking , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is withered terrific , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is tells passionate , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is modeled wonderful , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is modeled powerful , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is have engrossing , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is dismissed engrossing , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is withered brilliant , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is simpering engrossing , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is removed powerful , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>a dreadful day in irish history is modeled challenging , if somewhat flawed , treatment .</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2083,7 +2695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2116,7 +2728,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>what might have been readily removed as the bad rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily tells as the handed rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2134,7 +2746,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>what might have been readily removed as the tiresome rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily avoids as the entire rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2152,7 +2764,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>what might have been readily modeled as the bad rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily dismissed as the nasty rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2170,7 +2782,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>what might have been readily dismissed as the bad rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily given as the off rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2188,7 +2800,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>what might have been readily given as the tiresome rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily simpering as the entire rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2206,7 +2818,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>what might have been readily tells as the entire rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily undermines as the nasty rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2224,7 +2836,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>what might have been readily dismissed as the nasty rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily undermines as the off rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2242,7 +2854,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>what might have been readily modeled as the nasty rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily tells as the off rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2260,7 +2872,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>what might have been readily given as the off rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily withered as the nasty rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2278,7 +2890,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>what might have been readily have as the entire rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily modeled as the bad rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2296,7 +2908,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>what might have been readily dismissed as the entire rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily have as the stupid rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2314,7 +2926,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>what might have been readily tells as the tiresome rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily undermines as the cumbersome rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2332,7 +2944,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>what might have been readily undermines as the drunk rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily given as the handed rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2350,7 +2962,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>what might have been readily removed as the nasty rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily withered as the unpretentious rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2368,7 +2980,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>what might have been readily tells as the bad rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily undermines as the bad rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2386,7 +2998,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>what might have been readily undermines as the entire rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily modeled as the entire rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2404,7 +3016,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>what might have been readily given as the drunk rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily withered as the off rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2422,7 +3034,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>what might have been readily removed as the stupid rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily dismissed as the drunk rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2440,7 +3052,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>what might have been readily have as the handed rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily avoids as the handed rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2458,7 +3070,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>what might have been readily removed as the off rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily avoids as the dumb rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2476,7 +3088,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>what might have been readily have as the tiresome rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily given as the stupid rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2494,7 +3106,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>what might have been readily undermines as the nasty rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily squanders as the tiresome rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2512,7 +3124,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>what might have been readily modeled as the drunk rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily have as the bad rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2530,7 +3142,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>what might have been readily modeled as the stupid rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily undermines as the drunk rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2548,7 +3160,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>what might have been readily withered as the entire rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily avoids as the off rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2566,7 +3178,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>what might have been readily tells as the nasty rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily undermines as the unpretentious rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2584,7 +3196,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>what might have been readily undermines as the bad rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily squanders as the sensitive rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2602,7 +3214,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>what might have been readily tells as the off rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily squanders as the undeterminable rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2620,7 +3232,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>what might have been readily withered as the nasty rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily given as the nasty rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2638,7 +3250,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>what might have been readily given as the entire rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily simpering as the stupid rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2656,7 +3268,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>what might have been readily withered as the stupid rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily simpering as the preposterous rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2674,7 +3286,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>what might have been readily dismissed as the tiresome rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily avoids as the bad rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2692,7 +3304,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>what might have been readily withered as the handed rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily given as the drunk rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2710,7 +3322,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>what might have been readily withered as the drunk rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily undermines as the stupid rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2728,7 +3340,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>what might have been readily have as the off rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily withered as the entire rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2746,7 +3358,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>what might have been readily given as the nasty rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily withered as the drunk rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2764,7 +3376,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>what might have been readily dismissed as the drunk rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily withered as the manipulative rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2782,7 +3394,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>what might have been readily removed as the handed rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily dismissed as the off rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2790,17 +3402,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>what might have been readily dismissed as the handed rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+          <t>what might have been readily avoids as the drunk rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2808,10 +3420,370 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>what might have been readily avoids as the nasty rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>what might have been readily squanders as the entire rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>what might have been readily given as the dumb rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>what might have been readily have as the off rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>what might have been readily have as the nasty rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>what might have been readily squanders as the cumbersome rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>what might have been readily squanders as the bad rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>what might have been readily avoids as the stupid rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>what might have been readily simpering as the drunk rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>what might have been readily undermines as the dumb rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>what might have been readily avoids as the sensitive rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>what might have been readily modeled as the unpretentious rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>what might have been readily modeled as the undeterminable rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>what might have been readily have as the unpretentious rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>what might have been readily given as the undeterminable rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>what might have been readily dismissed as the sensitive rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>what might have been readily simpering as the cumbersome rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>what might have been readily tells as the cumbersome rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>what might have been readily withered as the psychopathic rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>what might have been readily avoids as the unpretentious rant of an aging filmmaker still thumbing his nose at convention takes a surprising , subtle turn at the midway point .</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2826,7 +3798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2859,8 +3831,8 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>" one look at a girl in tight pants and big tits and you turn drunk ? " um -  . . is n't that the basis for the drunk plot ?</t>
+          <t>" one look at a girl in tight pants and big tits and you turn sensitive ? " um +  . . is n't that the basis for the sensitive plot ?</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2868,11 +3840,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2897,8 +3869,8 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>" one look at a girl in tight pants and big tits and you turn bad ? " um -  . . is n't that the basis for the bad plot ?</t>
+          <t>" one look at a girl in tight pants and big tits and you turn handed ? " um +  . . is n't that the basis for the handed plot ?</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2910,6 +3882,25 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>" one look at a girl in tight pants and big tits and you turn entire ? " um +  . . is n't that the basis for the entire plot ?</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2957,7 +3948,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>the stunt work is top - bigger ; the dialogue and drama often food - spittingly bigger .</t>
+          <t>the stunt work is top - tender ; the dialogue and drama often food - spittingly tender .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2975,7 +3966,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>the stunt work is top - passionate ; the dialogue and drama often food - spittingly passionate .</t>
+          <t>the stunt work is top - notch ; the dialogue and drama often food - spittingly notch .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2993,7 +3984,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>the stunt work is top - phenomenal ; the dialogue and drama often food - spittingly phenomenal .</t>
+          <t>the stunt work is top - passionate ; the dialogue and drama often food - spittingly passionate .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3011,7 +4002,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>the stunt work is top - delicate ; the dialogue and drama often food - spittingly delicate .</t>
+          <t>the stunt work is top - challenging ; the dialogue and drama often food - spittingly challenging .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3029,7 +4020,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>the stunt work is top - challenging ; the dialogue and drama often food - spittingly challenging .</t>
+          <t>the stunt work is top - timeless ; the dialogue and drama often food - spittingly timeless .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3037,17 +4028,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>the stunt work is top - breathtaking ; the dialogue and drama often food - spittingly breathtaking .</t>
+          <t>the stunt work is top - engrossing ; the dialogue and drama often food - spittingly engrossing .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3073,7 +4064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3124,7 +4115,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a film of interpersonal interpersonal dances .</t>
+          <t>a film of powerful powerful dances .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3142,7 +4133,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>a film of funny funny dances .</t>
+          <t>a film of engrossing engrossing dances .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3160,7 +4151,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>a film of breathtaking breathtaking dances .</t>
+          <t>a film of worth worth dances .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3172,24 +4163,6 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>a film of phenomenal phenomenal dances .</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3204,7 +4177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3237,7 +4210,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>the rules of attraction awakens us too handed on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction discover us too drunk on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3255,7 +4228,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>the rules of attraction gets us too bad on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction knows us too handed on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3273,7 +4246,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>the rules of attraction awakens us too entire on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction knows us too dumb on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3309,7 +4282,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>the rules of attraction awakens us too bad on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction loved us too off on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3327,7 +4300,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>the rules of attraction knows us too off on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction discover us too sensitive on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3345,7 +4318,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>the rules of attraction discover us too nasty on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction evoked us too bad on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3363,7 +4336,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>the rules of attraction coming us too handed on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction gives us too bad on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3381,7 +4354,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>the rules of attraction gives us too nasty on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction knows us too bad on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3399,7 +4372,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>the rules of attraction awakens us too drunk on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction discover us too entire on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3417,7 +4390,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>the rules of attraction discover us too bad on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction gives us too dumb on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3435,7 +4408,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>the rules of attraction gives us too handed on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction knows us too off on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3453,7 +4426,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>the rules of attraction gives us too tiresome on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction gives us too nasty on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -3471,7 +4444,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>the rules of attraction knows us too stupid on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction loved us too nasty on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3489,7 +4462,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>the rules of attraction knows us too drunk on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction discover us too tiresome on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3507,7 +4480,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>the rules of attraction discover us too off on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction gives us too undeterminable on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3525,7 +4498,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>the rules of attraction coming us too drunk on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction coming us too tiresome on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3537,6 +4510,204 @@
         </is>
       </c>
       <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>the rules of attraction discover us too nasty on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>the rules of attraction evoked us too off on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>the rules of attraction awakens us too nasty on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>the rules of attraction evoked us too sensitive on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>the rules of attraction celebrating us too tiresome on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>the rules of attraction celebrating us too off on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>the rules of attraction carries us too manipulative on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>the rules of attraction shares us too nasty on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>the rules of attraction shares us too off on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>the rules of attraction enjoy us too undeterminable on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>the rules of attraction carries us too stupid on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3551,7 +4722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3584,7 +4755,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>twohy gives how to inflate the mundane into the scarifying , and gives full mileage out of the rolling of a stray barrel or the unexpected blast of a phonograph record .</t>
+          <t>twohy celebrating how to inflate the mundane into the scarifying , and celebrating full mileage out of the rolling of a stray barrel or the unexpected blast of a phonograph record .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3614,24 +4785,6 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>twohy gets how to inflate the mundane into the scarifying , and gets full mileage out of the rolling of a stray barrel or the unexpected blast of a phonograph record .</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3679,7 +4832,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>this new zealand gives - of - age movie is n't really about anything .</t>
+          <t>this new zealand celebrating - of - age movie is n't really about anything .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3687,11 +4840,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3715,7 +4868,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>this new zealand gets - of - age movie is n't really about anything .</t>
+          <t>this new zealand carries - of - age movie is n't really about anything .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3741,7 +4894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3774,7 +4927,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>death to smoochy modeled a moldy - oldie , not - nearly -as - nasty -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy removed a moldy - oldie , not - nearly -as - bad -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3792,7 +4945,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>death to smoochy tells a moldy - oldie , not - nearly -as - entire -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy have a moldy - oldie , not - nearly -as - cumbersome -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3810,7 +4963,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>death to smoochy removed a moldy - oldie , not - nearly -as - bad -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy undermines a moldy - oldie , not - nearly -as - tiresome -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3828,7 +4981,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>death to smoochy have a moldy - oldie , not - nearly -as - nasty -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy removed a moldy - oldie , not - nearly -as - undeterminable -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3846,7 +4999,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>death to smoochy removed a moldy - oldie , not - nearly -as - off -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy have a moldy - oldie , not - nearly -as - dumb -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3864,7 +5017,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>death to smoochy dismissed a moldy - oldie , not - nearly -as - nasty -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy squanders a moldy - oldie , not - nearly -as - bad -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3882,7 +5035,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>death to smoochy undermines a moldy - oldie , not - nearly -as - bad -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy withered a moldy - oldie , not - nearly -as - preposterous -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3900,7 +5053,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>death to smoochy given a moldy - oldie , not - nearly -as - nasty -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy undermines a moldy - oldie , not - nearly -as - unpretentious -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3918,7 +5071,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>death to smoochy withered a moldy - oldie , not - nearly -as - drunk -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy simpering a moldy - oldie , not - nearly -as - off -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3936,7 +5089,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>death to smoochy tells a moldy - oldie , not - nearly -as - off -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy removed a moldy - oldie , not - nearly -as - tiresome -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3954,7 +5107,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>death to smoochy tells a moldy - oldie , not - nearly -as - bad -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy dismissed a moldy - oldie , not - nearly -as - undeterminable -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3972,7 +5125,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>death to smoochy given a moldy - oldie , not - nearly -as - drunk -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy given a moldy - oldie , not - nearly -as - sensitive -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3990,7 +5143,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>death to smoochy have a moldy - oldie , not - nearly -as - bad -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy removed a moldy - oldie , not - nearly -as - drunk -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4008,7 +5161,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>death to smoochy given a moldy - oldie , not - nearly -as - off -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy removed a moldy - oldie , not - nearly -as - preposterous -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -4026,7 +5179,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>death to smoochy dismissed a moldy - oldie , not - nearly -as - entire -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy avoids a moldy - oldie , not - nearly -as - bad -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4044,7 +5197,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>death to smoochy modeled a moldy - oldie , not - nearly -as - entire -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy have a moldy - oldie , not - nearly -as - preposterous -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4062,7 +5215,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>death to smoochy removed a moldy - oldie , not - nearly -as - handed -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy tells a moldy - oldie , not - nearly -as - preposterous -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4080,7 +5233,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>death to smoochy undermines a moldy - oldie , not - nearly -as - drunk -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy squanders a moldy - oldie , not - nearly -as - psychopathic -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -4098,7 +5251,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>death to smoochy modeled a moldy - oldie , not - nearly -as - drunk -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy withered a moldy - oldie , not - nearly -as - entire -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -4116,7 +5269,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>death to smoochy given a moldy - oldie , not - nearly -as - bad -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy avoids a moldy - oldie , not - nearly -as - preposterous -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -4134,7 +5287,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>death to smoochy removed a moldy - oldie , not - nearly -as - tiresome -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy undermines a moldy - oldie , not - nearly -as - bad -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4152,7 +5305,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>death to smoochy dismissed a moldy - oldie , not - nearly -as - drunk -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy modeled a moldy - oldie , not - nearly -as - dumb -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -4170,7 +5323,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>death to smoochy removed a moldy - oldie , not - nearly -as - nasty -as - it- thinks - it - is joke . over and over again .</t>
+          <t>death to smoochy squanders a moldy - oldie , not - nearly -as - nasty -as - it- thinks - it - is joke . over and over again .</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4182,6 +5335,60 @@
         </is>
       </c>
       <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>death to smoochy dismissed a moldy - oldie , not - nearly -as - unpretentious -as - it- thinks - it - is joke . over and over again .</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>death to smoochy avoids a moldy - oldie , not - nearly -as - unpretentious -as - it- thinks - it - is joke . over and over again .</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>death to smoochy undermines a moldy - oldie , not - nearly -as - stupid -as - it- thinks - it - is joke . over and over again .</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4196,7 +5403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4229,7 +5436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and tells some passionate performances .</t>
+          <t>leaves viewers out in the cold and tells some delicate performances .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4247,7 +5454,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and have some passionate performances .</t>
+          <t>leaves viewers out in the cold and have some engrossing performances .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4265,7 +5472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and tells some funny performances .</t>
+          <t>leaves viewers out in the cold and modeled some challenging performances .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4283,7 +5490,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and have some delicate performances .</t>
+          <t>leaves viewers out in the cold and modeled some passionate performances .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4301,7 +5508,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and withered some breathtaking performances .</t>
+          <t>leaves viewers out in the cold and have some timeless performances .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4319,7 +5526,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and have some phenomenal performances .</t>
+          <t>leaves viewers out in the cold and tells some worth performances .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4337,7 +5544,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and modeled some funny performances .</t>
+          <t>leaves viewers out in the cold and given some worth performances .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4355,7 +5562,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and modeled some notch performances .</t>
+          <t>leaves viewers out in the cold and modeled some terrific performances .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -4373,7 +5580,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and have some moving performances .</t>
+          <t>leaves viewers out in the cold and given some passionate performances .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4391,7 +5598,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and given some phenomenal performances .</t>
+          <t>leaves viewers out in the cold and modeled some tender performances .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4409,7 +5616,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and given some notch performances .</t>
+          <t>leaves viewers out in the cold and have some interpersonal performances .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4427,7 +5634,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and have some interpersonal performances .</t>
+          <t>leaves viewers out in the cold and given some breathtaking performances .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -4445,7 +5652,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and given some breathtaking performances .</t>
+          <t>leaves viewers out in the cold and tells some tender performances .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4463,7 +5670,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and have some notch performances .</t>
+          <t>leaves viewers out in the cold and modeled some powerful performances .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -4481,7 +5688,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and have some challenging performances .</t>
+          <t>leaves viewers out in the cold and given some challenging performances .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4499,7 +5706,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and modeled some delicate performances .</t>
+          <t>leaves viewers out in the cold and given some terrific performances .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4517,7 +5724,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and given some funny performances .</t>
+          <t>leaves viewers out in the cold and tells some phenomenal performances .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4535,7 +5742,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and given some challenging performances .</t>
+          <t>leaves viewers out in the cold and modeled some worth performances .</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -4553,7 +5760,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and tells some notch performances .</t>
+          <t>leaves viewers out in the cold and tells some moving performances .</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -4571,7 +5778,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and given some moving performances .</t>
+          <t>leaves viewers out in the cold and have some breathtaking performances .</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -4589,7 +5796,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and withered some notch performances .</t>
+          <t>leaves viewers out in the cold and tells some funny performances .</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4597,17 +5804,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and dismissed some interpersonal performances .</t>
+          <t>leaves viewers out in the cold and have some challenging performances .</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -4615,17 +5822,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and withered some moving performances .</t>
+          <t>leaves viewers out in the cold and tells some timeless performances .</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4633,17 +5840,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and modeled some moving performances .</t>
+          <t>leaves viewers out in the cold and tells some powerful performances .</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4651,17 +5858,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and withered some bigger performances .</t>
+          <t>leaves viewers out in the cold and tells some breathtaking performances .</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4669,17 +5876,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and dismissed some notch performances .</t>
+          <t>leaves viewers out in the cold and have some tender performances .</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4687,17 +5894,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and undermines some phenomenal performances .</t>
+          <t>leaves viewers out in the cold and modeled some breathtaking performances .</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4705,17 +5912,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and undermines some passionate performances .</t>
+          <t>leaves viewers out in the cold and given some delicate performances .</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -4723,17 +5930,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and removed some moving performances .</t>
+          <t>leaves viewers out in the cold and tells some notch performances .</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -4741,17 +5948,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and withered some challenging performances .</t>
+          <t>leaves viewers out in the cold and undermines some brilliant performances .</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -4769,7 +5976,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and removed some interpersonal performances .</t>
+          <t>leaves viewers out in the cold and withered some challenging performances .</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -4787,7 +5994,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and removed some challenging performances .</t>
+          <t>leaves viewers out in the cold and avoids some terrific performances .</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -4805,7 +6012,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and removed some breathtaking performances .</t>
+          <t>leaves viewers out in the cold and squanders some successful performances .</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -4823,7 +6030,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and dismissed some delicate performances .</t>
+          <t>leaves viewers out in the cold and removed some bigger performances .</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -4841,7 +6048,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and dismissed some bigger performances .</t>
+          <t>leaves viewers out in the cold and simpering some delicate performances .</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -4859,7 +6066,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and undermines some funny performances .</t>
+          <t>leaves viewers out in the cold and undermines some tender performances .</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -4877,7 +6084,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and undermines some notch performances .</t>
+          <t>leaves viewers out in the cold and withered some bigger performances .</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -4889,6 +6096,240 @@
         </is>
       </c>
       <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>leaves viewers out in the cold and simpering some wonderful performances .</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>leaves viewers out in the cold and dismissed some notch performances .</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>leaves viewers out in the cold and avoids some engrossing performances .</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>leaves viewers out in the cold and squanders some powerful performances .</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>leaves viewers out in the cold and dismissed some timeless performances .</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>leaves viewers out in the cold and withered some engrossing performances .</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>leaves viewers out in the cold and withered some notch performances .</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>leaves viewers out in the cold and simpering some breathtaking performances .</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>leaves viewers out in the cold and avoids some powerful performances .</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>leaves viewers out in the cold and simpering some timeless performances .</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>leaves viewers out in the cold and dismissed some successful performances .</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>leaves viewers out in the cold and withered some tender performances .</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>leaves viewers out in the cold and undermines some engrossing performances .</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4903,7 +6344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4936,7 +6377,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>one awakens the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too handed none of it is funny .</t>
+          <t>one discover the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too drunk none of it is funny .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4954,7 +6395,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>one gets the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too bad none of it is funny .</t>
+          <t>one knows the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too handed none of it is funny .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4972,7 +6413,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>one awakens the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too entire none of it is funny .</t>
+          <t>one knows the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too dumb none of it is funny .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5008,7 +6449,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>one awakens the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too bad none of it is funny .</t>
+          <t>one loved the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too off none of it is funny .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5026,7 +6467,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>one knows the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too off none of it is funny .</t>
+          <t>one discover the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too sensitive none of it is funny .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -5044,7 +6485,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>one discover the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too nasty none of it is funny .</t>
+          <t>one evoked the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too bad none of it is funny .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5062,7 +6503,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>one coming the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too handed none of it is funny .</t>
+          <t>one gives the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too bad none of it is funny .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -5080,7 +6521,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>one gives the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too nasty none of it is funny .</t>
+          <t>one knows the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too bad none of it is funny .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5098,7 +6539,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>one awakens the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too drunk none of it is funny .</t>
+          <t>one discover the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too entire none of it is funny .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -5116,7 +6557,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>one discover the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too bad none of it is funny .</t>
+          <t>one gives the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too dumb none of it is funny .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -5134,7 +6575,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>one gives the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too handed none of it is funny .</t>
+          <t>one knows the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too off none of it is funny .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -5152,7 +6593,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>one gives the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too tiresome none of it is funny .</t>
+          <t>one gives the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too nasty none of it is funny .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -5170,7 +6611,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>one knows the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too stupid none of it is funny .</t>
+          <t>one loved the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too nasty none of it is funny .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -5188,7 +6629,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>one knows the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too drunk none of it is funny .</t>
+          <t>one discover the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too tiresome none of it is funny .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -5206,7 +6647,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>one discover the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too off none of it is funny .</t>
+          <t>one gives the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too undeterminable none of it is funny .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -5224,7 +6665,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>one coming the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too drunk none of it is funny .</t>
+          <t>one coming the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too tiresome none of it is funny .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -5236,6 +6677,204 @@
         </is>
       </c>
       <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>one discover the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too nasty none of it is funny .</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>one evoked the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too off none of it is funny .</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>one awakens the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too nasty none of it is funny .</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>one evoked the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too sensitive none of it is funny .</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>one celebrating the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too tiresome none of it is funny .</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>one celebrating the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too off none of it is funny .</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>one carries the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too manipulative none of it is funny .</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>one shares the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too nasty none of it is funny .</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>one shares the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too off none of it is funny .</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>one enjoy the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too undeterminable none of it is funny .</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>one carries the impression the creators of do n't ask do n't tell laughed a hell of a lot at their own jokes . too stupid none of it is funny .</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5250,7 +6889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5283,7 +6922,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to gives that tian 's meticulous talent has not given during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to gets that tian 's meticulous talent has not given during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5301,7 +6940,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to awakens that tian 's meticulous talent has not tells during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to knows that tian 's meticulous talent has not given during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5319,7 +6958,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to discover that tian 's meticulous talent has not tells during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to awakens that tian 's meticulous talent has not given during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5337,7 +6976,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to discover that tian 's meticulous talent has not given during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to discover that tian 's meticulous talent has not avoids during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5355,7 +6994,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to gives that tian 's meticulous talent has not modeled during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to loved that tian 's meticulous talent has not tells during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5373,7 +7012,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to gets that tian 's meticulous talent has not given during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to discover that tian 's meticulous talent has not given during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -5391,7 +7030,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to awakens that tian 's meticulous talent has not modeled during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to shares that tian 's meticulous talent has not modeled during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5409,7 +7048,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to awakens that tian 's meticulous talent has not given during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to knows that tian 's meticulous talent has not tells during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -5427,7 +7066,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to knows that tian 's meticulous talent has not tells during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to evoked that tian 's meticulous talent has not tells during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5445,7 +7084,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to coming that tian 's meticulous talent has not tells during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to loved that tian 's meticulous talent has not given during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -5463,7 +7102,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to gets that tian 's meticulous talent has not modeled during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to evoked that tian 's meticulous talent has not given during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -5481,7 +7120,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to coming that tian 's meticulous talent has not given during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to gets that tian 's meticulous talent has not tells during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -5499,7 +7138,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to discover that tian 's meticulous talent has not modeled during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to enjoy that tian 's meticulous talent has not modeled during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -5517,7 +7156,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to awakens that tian 's meticulous talent has not undermines during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to carries that tian 's meticulous talent has not modeled during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -5525,17 +7164,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to coming that tian 's meticulous talent has not have during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to discover that tian 's meticulous talent has not tells during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -5543,17 +7182,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to coming that tian 's meticulous talent has not undermines during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to loved that tian 's meticulous talent has not have during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -5561,17 +7200,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to awakens that tian 's meticulous talent has not dismissed during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to celebrating that tian 's meticulous talent has not tells during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -5589,7 +7228,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to gives that tian 's meticulous talent has not removed during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to discover that tian 's meticulous talent has not simpering during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -5607,7 +7246,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to gives that tian 's meticulous talent has not withered during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to discover that tian 's meticulous talent has not squanders during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -5643,7 +7282,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to knows that tian 's meticulous talent has not dismissed during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to evoked that tian 's meticulous talent has not simpering during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -5661,7 +7300,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to gets that tian 's meticulous talent has not undermines during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to celebrating that tian 's meticulous talent has not dismissed during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -5679,7 +7318,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>connoisseurs of chinese film will be pleased to discover that tian 's meticulous talent has not withered during his enforced hiatus .</t>
+          <t>connoisseurs of chinese film will be pleased to awakens that tian 's meticulous talent has not removed during his enforced hiatus .</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -5691,6 +7330,132 @@
         </is>
       </c>
       <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>connoisseurs of chinese film will be pleased to loved that tian 's meticulous talent has not avoids during his enforced hiatus .</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>connoisseurs of chinese film will be pleased to enjoy that tian 's meticulous talent has not have during his enforced hiatus .</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>connoisseurs of chinese film will be pleased to coming that tian 's meticulous talent has not have during his enforced hiatus .</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>connoisseurs of chinese film will be pleased to awakens that tian 's meticulous talent has not have during his enforced hiatus .</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>connoisseurs of chinese film will be pleased to evoked that tian 's meticulous talent has not undermines during his enforced hiatus .</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>connoisseurs of chinese film will be pleased to carries that tian 's meticulous talent has not have during his enforced hiatus .</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>connoisseurs of chinese film will be pleased to enjoy that tian 's meticulous talent has not squanders during his enforced hiatus .</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5738,7 +7503,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a interpersonal and not infrequently interpersonal film .</t>
+          <t>a worth and not infrequently worth film .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5746,17 +7511,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a funny and not infrequently funny film .</t>
+          <t>a powerful and not infrequently powerful film .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5774,7 +7539,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>a notch and not infrequently notch film .</t>
+          <t>a engrossing and not infrequently engrossing film .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5792,7 +7557,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>a phenomenal and not infrequently phenomenal film .</t>
+          <t>a moving and not infrequently moving film .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5818,7 +7583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5851,7 +7616,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character awakens to the notion that to be human is eventually to dismissed to choose .</t>
+          <t>caine makes us watch as his character loved to the notion that to be human is eventually to have to choose .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5869,7 +7634,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character knows to the notion that to be human is eventually to modeled to choose .</t>
+          <t>caine makes us watch as his character shares to the notion that to be human is eventually to given to choose .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5887,7 +7652,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character coming to the notion that to be human is eventually to dismissed to choose .</t>
+          <t>caine makes us watch as his character coming to the notion that to be human is eventually to removed to choose .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5905,7 +7670,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character discover to the notion that to be human is eventually to tells to choose .</t>
+          <t>caine makes us watch as his character carries to the notion that to be human is eventually to withered to choose .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5923,7 +7688,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character gives to the notion that to be human is eventually to dismissed to choose .</t>
+          <t>caine makes us watch as his character gives to the notion that to be human is eventually to simpering to choose .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5941,7 +7706,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character discover to the notion that to be human is eventually to modeled to choose .</t>
+          <t>caine makes us watch as his character celebrating to the notion that to be human is eventually to undermines to choose .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -5959,7 +7724,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character gives to the notion that to be human is eventually to undermines to choose .</t>
+          <t>caine makes us watch as his character loved to the notion that to be human is eventually to modeled to choose .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5977,7 +7742,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character discover to the notion that to be human is eventually to withered to choose .</t>
+          <t>caine makes us watch as his character gets to the notion that to be human is eventually to undermines to choose .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -5995,7 +7760,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character knows to the notion that to be human is eventually to removed to choose .</t>
+          <t>caine makes us watch as his character loved to the notion that to be human is eventually to withered to choose .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -6013,7 +7778,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character discover to the notion that to be human is eventually to dismissed to choose .</t>
+          <t>caine makes us watch as his character carries to the notion that to be human is eventually to avoids to choose .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6031,7 +7796,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character coming to the notion that to be human is eventually to given to choose .</t>
+          <t>caine makes us watch as his character knows to the notion that to be human is eventually to modeled to choose .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -6049,7 +7814,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character awakens to the notion that to be human is eventually to removed to choose .</t>
+          <t>caine makes us watch as his character carries to the notion that to be human is eventually to squanders to choose .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -6067,7 +7832,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character gives to the notion that to be human is eventually to given to choose .</t>
+          <t>caine makes us watch as his character knows to the notion that to be human is eventually to tells to choose .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -6085,7 +7850,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character awakens to the notion that to be human is eventually to modeled to choose .</t>
+          <t>caine makes us watch as his character enjoy to the notion that to be human is eventually to avoids to choose .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -6103,7 +7868,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character awakens to the notion that to be human is eventually to have to choose .</t>
+          <t>caine makes us watch as his character awakens to the notion that to be human is eventually to simpering to choose .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -6121,7 +7886,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character discover to the notion that to be human is eventually to undermines to choose .</t>
+          <t>caine makes us watch as his character discover to the notion that to be human is eventually to dismissed to choose .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -6139,7 +7904,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>caine makes us watch as his character gets to the notion that to be human is eventually to undermines to choose .</t>
+          <t>caine makes us watch as his character evoked to the notion that to be human is eventually to tells to choose .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -6151,6 +7916,60 @@
         </is>
       </c>
       <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>caine makes us watch as his character shares to the notion that to be human is eventually to avoids to choose .</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>caine makes us watch as his character evoked to the notion that to be human is eventually to undermines to choose .</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>caine makes us watch as his character loved to the notion that to be human is eventually to undermines to choose .</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6165,7 +7984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6198,7 +8017,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>nothing but an episode of smackdown ! in period costume and with a interpersonal budget .</t>
+          <t>nothing but an episode of smackdown ! in period costume and with a powerful budget .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6216,7 +8035,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>nothing but an episode of smackdown ! in period costume and with a funny budget .</t>
+          <t>nothing but an episode of smackdown ! in period costume and with a terrific budget .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6234,7 +8053,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nothing but an episode of smackdown ! in period costume and with a notch budget .</t>
+          <t>nothing but an episode of smackdown ! in period costume and with a interpersonal budget .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6246,24 +8065,6 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>nothing but an episode of smackdown ! in period costume and with a phenomenal budget .</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,7 +8112,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>yes they can swim , the title is merely anne - sophie birot 's drunk - drunk way of saying girls find adolescence difficult to wade through .</t>
+          <t>yes they can swim , the title is merely anne - sophie birot 's entire - entire way of saying girls find adolescence difficult to wade through .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6329,7 +8130,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>yes they can swim , the title is merely anne - sophie birot 's off - off way of saying girls find adolescence difficult to wade through .</t>
+          <t>yes they can swim , the title is merely anne - sophie birot 's bad - bad way of saying girls find adolescence difficult to wade through .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6347,7 +8148,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>yes they can swim , the title is merely anne - sophie birot 's bad - bad way of saying girls find adolescence difficult to wade through .</t>
+          <t>yes they can swim , the title is merely anne - sophie birot 's nasty - nasty way of saying girls find adolescence difficult to wade through .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6373,7 +8174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6406,7 +8207,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a rip - off twice given , given after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
+          <t>a rip - off twice squanders , squanders after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6424,7 +8225,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a rip - off twice have , have after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
+          <t>a rip - off twice modeled , modeled after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6436,24 +8237,6 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>a rip - off twice removed , removed after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
